--- a/dados/Tabela de Equivalências_DEE.xlsx
+++ b/dados/Tabela de Equivalências_DEE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\2_Var\Professor\___Pesquisa\Projetos\20230318_Aproveitamentos_Disciplinas_Novo_PPC\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helon\Dropbox\2_Var\Professor\___Pesquisa\Projetos\20230318_Aproveitamentos_Disciplinas_Novo_PPC\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9DEA56-19B2-4DB3-92C0-A07ECF0C5D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A3318D-621A-45BA-858B-4130A4E922A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{924E8421-3486-4637-9452-14CE2A110864}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{924E8421-3486-4637-9452-14CE2A110864}"/>
   </bookViews>
   <sheets>
     <sheet name="PPC Anterior GEN" sheetId="5" r:id="rId1"/>
@@ -23,12 +23,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Equivalências!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PPC Anterior C&amp;A'!$A$1:$D$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PPC Anterior ELE'!$A$1:$D$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PPC Anterior GEN'!$A$1:$D$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PPC Anterior SDE'!$A$1:$D$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PPC Anterior C&amp;A'!$A$1:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PPC Anterior ELE'!$A$1:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PPC Anterior GEN'!$A$1:$D$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PPC Anterior SDE'!$A$1:$D$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'PPC Atual SDE'!$A$1:$E$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PPC Atual SIN'!$A$1:$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PPC Atual SIN'!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -455,9 +455,6 @@
     <t>Metodologia do Trabalho Científico &amp;&amp; Sociologia do Trabalho</t>
   </si>
   <si>
-    <t>Física Experimental II &amp;&amp; Introdução a Processos Estocásticos</t>
-  </si>
-  <si>
     <t>Instalações Elétricas I</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sistemas Elétricos </t>
+  </si>
+  <si>
+    <t>Física Experimental II &amp;&amp; Pesquisa Aplicada à Engenharia Elétrica</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -705,6 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,19 +1022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7B450D-3842-4E5D-9CA9-B83EAA22C61B}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -1058,11 +1057,11 @@
         <v>60</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">C2/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C2/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -1073,11 +1072,11 @@
         <v>60</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C3/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -1088,11 +1087,11 @@
         <v>60</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C4/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
@@ -1103,11 +1102,11 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C5/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1118,11 +1117,11 @@
         <v>75</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f>C6/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -1133,11 +1132,11 @@
         <v>45</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f>C7/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1148,11 +1147,11 @@
         <v>60</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C8/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -1163,11 +1162,11 @@
         <v>45</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f>C9/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1178,11 +1177,11 @@
         <v>60</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C10/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1193,11 +1192,11 @@
         <v>75</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
+        <f>C11/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -1208,11 +1207,11 @@
         <v>60</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C12/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1223,11 +1222,11 @@
         <v>60</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C13/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -1238,11 +1237,11 @@
         <v>60</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C14/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1253,11 +1252,11 @@
         <v>60</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C15/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -1268,11 +1267,11 @@
         <v>75</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
+        <f>C16/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -1283,11 +1282,11 @@
         <v>60</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C17/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -1298,11 +1297,11 @@
         <v>60</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C18/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -1313,11 +1312,11 @@
         <v>30</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
+        <f>C19/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -1328,11 +1327,11 @@
         <v>60</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C20/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
@@ -1343,11 +1342,11 @@
         <v>60</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C21/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
@@ -1358,11 +1357,11 @@
         <v>60</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C22/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
@@ -1373,11 +1372,11 @@
         <v>60</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C23/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
@@ -1388,11 +1387,11 @@
         <v>75</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="0"/>
+        <f>C24/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
@@ -1403,11 +1402,11 @@
         <v>30</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="0"/>
+        <f>C25/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1418,11 +1417,11 @@
         <v>60</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C26/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
@@ -1433,11 +1432,11 @@
         <v>60</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C27/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
@@ -1448,11 +1447,11 @@
         <v>90</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="0"/>
+        <f>C28/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
@@ -1463,11 +1462,11 @@
         <v>60</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C29/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -1478,11 +1477,11 @@
         <v>60</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C30/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -1493,11 +1492,11 @@
         <v>60</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C31/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>29</v>
       </c>
@@ -1508,11 +1507,11 @@
         <v>60</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C32/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
@@ -1523,11 +1522,11 @@
         <v>60</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C33/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
@@ -1538,11 +1537,11 @@
         <v>60</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:D65" si="1">C34/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C34/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>29</v>
       </c>
@@ -1553,11 +1552,11 @@
         <v>75</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="1"/>
+        <f>C35/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
@@ -1568,11 +1567,11 @@
         <v>60</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C36/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
@@ -1583,11 +1582,11 @@
         <v>45</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
+        <f>C37/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
@@ -1598,11 +1597,11 @@
         <v>75</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
+        <f>C38/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
@@ -1613,11 +1612,11 @@
         <v>75</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
+        <f>C39/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>30</v>
       </c>
@@ -1628,11 +1627,11 @@
         <v>60</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C40/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>30</v>
       </c>
@@ -1643,11 +1642,11 @@
         <v>90</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
+        <f>C41/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
@@ -1658,11 +1657,11 @@
         <v>45</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
+        <f>C42/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
@@ -1673,11 +1672,11 @@
         <v>60</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C43/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
@@ -1688,11 +1687,11 @@
         <v>75</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" si="1"/>
+        <f>C44/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -1703,11 +1702,11 @@
         <v>75</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" si="1"/>
+        <f>C45/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>31</v>
       </c>
@@ -1718,11 +1717,11 @@
         <v>60</v>
       </c>
       <c r="D46" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C46/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>31</v>
       </c>
@@ -1733,11 +1732,11 @@
         <v>75</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="1"/>
+        <f>C47/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>31</v>
       </c>
@@ -1748,11 +1747,11 @@
         <v>75</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="1"/>
+        <f>C48/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
@@ -1763,11 +1762,11 @@
         <v>75</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="1"/>
+        <f>C49/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>32</v>
       </c>
@@ -1778,11 +1777,11 @@
         <v>60</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C50/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
@@ -1793,11 +1792,11 @@
         <v>60</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C51/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -1808,11 +1807,11 @@
         <v>60</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C52/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>33</v>
       </c>
@@ -1823,11 +1822,11 @@
         <v>60</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C53/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>33</v>
       </c>
@@ -1838,11 +1837,11 @@
         <v>60</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C54/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>34</v>
       </c>
@@ -1853,406 +1852,405 @@
         <v>180</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="1"/>
+        <f>C55/15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C56" s="12">
         <v>60</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C56/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="12">
         <v>60</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C57/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="12">
         <v>60</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C58/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="12">
         <v>60</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C59/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C60" s="12">
         <v>60</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C60/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>79</v>
+      <c r="B61" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C61" s="12">
         <v>60</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C61/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>80</v>
+      <c r="B62" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C62" s="12">
         <v>60</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C62/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="12">
         <v>60</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C63/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="12">
         <v>60</v>
       </c>
       <c r="D64" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C64/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="12">
         <v>60</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C65/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C66" s="12">
         <v>60</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" ref="D66:D81" si="2">C66/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C66/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="12">
         <v>60</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C67/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="12">
         <v>60</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C68/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C69" s="12">
         <v>60</v>
       </c>
       <c r="D69" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C69/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="12">
         <v>60</v>
       </c>
       <c r="D70" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C70/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C71" s="12">
         <v>60</v>
       </c>
       <c r="D71" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C71/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C72" s="12">
         <v>60</v>
       </c>
       <c r="D72" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C72/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C73" s="12">
         <v>60</v>
       </c>
       <c r="D73" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C73/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>91</v>
+      <c r="B74" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C74" s="12">
         <v>60</v>
       </c>
       <c r="D74" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C74/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" s="12">
         <v>60</v>
       </c>
       <c r="D75" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C75/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" s="12">
         <v>60</v>
       </c>
       <c r="D76" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C76/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C77" s="12">
         <v>60</v>
       </c>
       <c r="D77" s="12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C77/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>67</v>
+      <c r="B78" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C78" s="24">
         <v>60</v>
       </c>
       <c r="D78" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C78/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C79" s="24">
         <v>60</v>
       </c>
       <c r="D79" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C79/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C80" s="24">
         <v>60</v>
       </c>
       <c r="D80" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C80/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C81" s="24">
         <v>60</v>
       </c>
       <c r="D81" s="24">
-        <f t="shared" si="2"/>
+        <f>C81/15</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D77" xr:uid="{EB7B450D-3842-4E5D-9CA9-B83EAA22C61B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
-      <sortCondition ref="A1:A77"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D81">
+    <sortCondition ref="A2:A81"/>
+    <sortCondition ref="B2:B81"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2262,19 +2260,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E4B1A4-D7A6-4F53-8A5A-F57CF37F6216}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -2299,11 +2295,11 @@
         <v>60</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">C2/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C2/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -2314,11 +2310,11 @@
         <v>60</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C3/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -2329,11 +2325,11 @@
         <v>60</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C4/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
@@ -2344,11 +2340,11 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C5/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -2359,11 +2355,11 @@
         <v>75</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f>C6/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -2374,11 +2370,11 @@
         <v>45</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f>C7/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -2389,11 +2385,11 @@
         <v>60</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C8/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -2404,11 +2400,11 @@
         <v>45</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f>C9/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -2419,11 +2415,11 @@
         <v>60</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C10/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -2434,11 +2430,11 @@
         <v>75</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
+        <f>C11/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -2449,11 +2445,11 @@
         <v>60</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C12/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -2464,11 +2460,11 @@
         <v>60</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C13/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -2479,11 +2475,11 @@
         <v>60</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C14/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -2494,11 +2490,11 @@
         <v>60</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C15/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -2509,11 +2505,11 @@
         <v>75</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
+        <f>C16/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -2524,11 +2520,11 @@
         <v>60</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C17/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -2539,11 +2535,11 @@
         <v>60</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C18/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -2554,11 +2550,11 @@
         <v>30</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
+        <f>C19/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2569,11 +2565,11 @@
         <v>60</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C20/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
@@ -2584,11 +2580,11 @@
         <v>60</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C21/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
@@ -2599,11 +2595,11 @@
         <v>60</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C22/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
@@ -2614,11 +2610,11 @@
         <v>60</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C23/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
@@ -2629,11 +2625,11 @@
         <v>75</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="0"/>
+        <f>C24/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
@@ -2644,11 +2640,11 @@
         <v>30</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="0"/>
+        <f>C25/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -2659,11 +2655,11 @@
         <v>60</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C26/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
@@ -2674,11 +2670,11 @@
         <v>60</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C27/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
@@ -2689,11 +2685,11 @@
         <v>90</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="0"/>
+        <f>C28/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
@@ -2704,11 +2700,11 @@
         <v>60</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C29/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -2719,11 +2715,11 @@
         <v>60</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C30/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -2734,11 +2730,11 @@
         <v>60</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C31/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>29</v>
       </c>
@@ -2749,11 +2745,11 @@
         <v>60</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C32/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
@@ -2764,11 +2760,11 @@
         <v>60</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C33/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
@@ -2779,11 +2775,11 @@
         <v>60</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:D64" si="1">C34/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C34/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>29</v>
       </c>
@@ -2794,11 +2790,11 @@
         <v>75</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="1"/>
+        <f>C35/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
@@ -2809,11 +2805,11 @@
         <v>60</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C36/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
@@ -2824,11 +2820,11 @@
         <v>45</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
+        <f>C37/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
@@ -2839,11 +2835,11 @@
         <v>75</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
+        <f>C38/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
@@ -2854,11 +2850,11 @@
         <v>75</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
+        <f>C39/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>30</v>
       </c>
@@ -2869,11 +2865,11 @@
         <v>60</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C40/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>30</v>
       </c>
@@ -2884,11 +2880,11 @@
         <v>90</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
+        <f>C41/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
@@ -2899,11 +2895,11 @@
         <v>45</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
+        <f>C42/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
@@ -2914,11 +2910,11 @@
         <v>60</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C43/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
@@ -2929,11 +2925,11 @@
         <v>75</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" si="1"/>
+        <f>C44/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -2944,11 +2940,11 @@
         <v>75</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" si="1"/>
+        <f>C45/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>31</v>
       </c>
@@ -2959,11 +2955,11 @@
         <v>60</v>
       </c>
       <c r="D46" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C46/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>31</v>
       </c>
@@ -2974,11 +2970,11 @@
         <v>75</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="1"/>
+        <f>C47/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>31</v>
       </c>
@@ -2989,11 +2985,11 @@
         <v>75</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="1"/>
+        <f>C48/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
@@ -3004,11 +3000,11 @@
         <v>75</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="1"/>
+        <f>C49/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>32</v>
       </c>
@@ -3019,11 +3015,11 @@
         <v>60</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C50/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
@@ -3034,11 +3030,11 @@
         <v>60</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C51/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -3049,11 +3045,11 @@
         <v>60</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C52/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>33</v>
       </c>
@@ -3064,11 +3060,11 @@
         <v>60</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C53/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>33</v>
       </c>
@@ -3079,11 +3075,11 @@
         <v>60</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C54/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>34</v>
       </c>
@@ -3094,11 +3090,11 @@
         <v>180</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="1"/>
+        <f>C55/15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
@@ -3109,11 +3105,11 @@
         <v>60</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C56/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>131</v>
       </c>
@@ -3124,11 +3120,11 @@
         <v>60</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C57/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
@@ -3139,11 +3135,11 @@
         <v>60</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C58/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
@@ -3154,11 +3150,11 @@
         <v>60</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C59/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>131</v>
       </c>
@@ -3169,11 +3165,11 @@
         <v>60</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C60/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>131</v>
       </c>
@@ -3184,11 +3180,11 @@
         <v>60</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C61/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
@@ -3199,11 +3195,11 @@
         <v>60</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C62/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>131</v>
       </c>
@@ -3214,11 +3210,11 @@
         <v>60</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C63/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>131</v>
       </c>
@@ -3229,13 +3225,14 @@
         <v>60</v>
       </c>
       <c r="D64" s="12">
-        <f t="shared" si="1"/>
+        <f>C64/15</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
-    <sortCondition ref="A1:A64"/>
+    <sortCondition ref="A2:A64"/>
+    <sortCondition ref="B2:B64"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3246,19 +3243,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C59053E-7965-4A75-9824-03AC8EAFB553}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -3272,112 +3267,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">C2/15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C2/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="12">
         <v>60</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C3/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12">
         <v>60</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C4/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12">
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C5/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C6/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C7/15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="12">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C8/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3388,11 +3383,11 @@
         <v>45</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f>C9/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -3403,101 +3398,101 @@
         <v>60</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C10/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C11/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C12" s="12">
         <v>60</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C12/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C13" s="12">
         <v>60</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C13/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C14" s="12">
         <v>60</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C14/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C15" s="12">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C15/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C16/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -3508,11 +3503,11 @@
         <v>60</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C17/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -3523,176 +3518,176 @@
         <v>60</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C18/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C19/15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12">
         <v>60</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C20/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12">
         <v>60</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C21/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C22/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C23/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C24" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C24/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C25" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C25/15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="12">
         <v>60</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C26/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C27" s="12">
         <v>60</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C27/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" s="12">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C28/15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C29/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -3703,11 +3698,11 @@
         <v>60</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C30/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -3718,11 +3713,11 @@
         <v>60</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C31/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>29</v>
       </c>
@@ -3733,11 +3728,11 @@
         <v>60</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C32/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
@@ -3748,11 +3743,11 @@
         <v>60</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C33/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
@@ -3763,41 +3758,41 @@
         <v>60</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:D64" si="1">C34/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C34/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C35/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="12">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C36/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
@@ -3808,146 +3803,146 @@
         <v>45</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
+        <f>C37/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C38" s="12">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C38/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C39" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C39/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C40" s="12">
         <v>60</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C40/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C41" s="12">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C41/15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C42" s="12">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C42/15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C43" s="12">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C43/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C44" s="12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C44/15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C45" s="12">
         <v>75</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" si="1"/>
+        <f>C45/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C46" s="12">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D46" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C46/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>31</v>
       </c>
@@ -3958,11 +3953,11 @@
         <v>75</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="1"/>
+        <f>C47/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>31</v>
       </c>
@@ -3973,11 +3968,11 @@
         <v>75</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="1"/>
+        <f>C48/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
@@ -3988,11 +3983,11 @@
         <v>75</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="1"/>
+        <f>C49/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>32</v>
       </c>
@@ -4003,11 +3998,11 @@
         <v>60</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C50/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
@@ -4018,11 +4013,11 @@
         <v>60</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C51/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -4033,11 +4028,11 @@
         <v>60</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C52/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>33</v>
       </c>
@@ -4048,11 +4043,11 @@
         <v>60</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C53/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>33</v>
       </c>
@@ -4063,11 +4058,11 @@
         <v>60</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C54/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>34</v>
       </c>
@@ -4078,11 +4073,11 @@
         <v>180</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="1"/>
+        <f>C55/15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
@@ -4093,11 +4088,11 @@
         <v>60</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C56/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>131</v>
       </c>
@@ -4108,11 +4103,11 @@
         <v>60</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C57/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
@@ -4123,11 +4118,11 @@
         <v>60</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C58/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
@@ -4138,11 +4133,11 @@
         <v>60</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C59/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>131</v>
       </c>
@@ -4153,11 +4148,11 @@
         <v>60</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C60/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>131</v>
       </c>
@@ -4168,11 +4163,11 @@
         <v>60</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C61/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
@@ -4183,11 +4178,11 @@
         <v>60</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C62/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>131</v>
       </c>
@@ -4198,11 +4193,11 @@
         <v>60</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C63/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>131</v>
       </c>
@@ -4213,13 +4208,14 @@
         <v>60</v>
       </c>
       <c r="D64" s="12">
-        <f t="shared" si="1"/>
+        <f>C64/15</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
     <sortCondition ref="A2:A64"/>
+    <sortCondition ref="B2:B64"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4230,19 +4226,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63742967-C42A-4FC0-BB72-72B84CC60B80}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -4256,7 +4250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -4267,11 +4261,11 @@
         <v>60</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:D33" si="0">C2/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C2/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -4282,11 +4276,11 @@
         <v>60</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C3/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -4297,11 +4291,11 @@
         <v>60</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C4/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
@@ -4312,11 +4306,11 @@
         <v>60</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C5/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -4327,11 +4321,11 @@
         <v>75</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f>C6/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -4342,11 +4336,11 @@
         <v>45</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f>C7/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -4357,11 +4351,11 @@
         <v>60</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C8/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -4372,11 +4366,11 @@
         <v>45</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f>C9/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -4387,11 +4381,11 @@
         <v>60</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C10/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -4402,11 +4396,11 @@
         <v>75</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
+        <f>C11/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
@@ -4417,11 +4411,11 @@
         <v>60</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C12/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -4432,11 +4426,11 @@
         <v>60</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C13/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
@@ -4447,11 +4441,11 @@
         <v>60</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C14/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -4462,11 +4456,11 @@
         <v>60</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C15/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
@@ -4477,11 +4471,11 @@
         <v>75</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
+        <f>C16/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -4492,11 +4486,11 @@
         <v>60</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C17/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -4507,11 +4501,11 @@
         <v>60</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C18/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -4522,11 +4516,11 @@
         <v>30</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
+        <f>C19/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -4537,11 +4531,11 @@
         <v>60</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C20/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
@@ -4552,11 +4546,11 @@
         <v>60</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C21/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
@@ -4567,11 +4561,11 @@
         <v>60</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C22/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
@@ -4582,11 +4576,11 @@
         <v>60</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C23/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
@@ -4597,11 +4591,11 @@
         <v>75</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="0"/>
+        <f>C24/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
@@ -4612,11 +4606,11 @@
         <v>30</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="0"/>
+        <f>C25/15</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
@@ -4627,11 +4621,11 @@
         <v>60</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C26/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
@@ -4642,11 +4636,11 @@
         <v>60</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C27/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
@@ -4657,11 +4651,11 @@
         <v>90</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="0"/>
+        <f>C28/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
@@ -4672,11 +4666,11 @@
         <v>60</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C29/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
@@ -4687,11 +4681,11 @@
         <v>60</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C30/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
@@ -4702,11 +4696,11 @@
         <v>60</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C31/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>29</v>
       </c>
@@ -4717,11 +4711,11 @@
         <v>60</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C32/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
@@ -4732,11 +4726,11 @@
         <v>60</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C33/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
@@ -4747,11 +4741,11 @@
         <v>60</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:D63" si="1">C34/15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C34/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>29</v>
       </c>
@@ -4762,11 +4756,11 @@
         <v>75</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="1"/>
+        <f>C35/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
@@ -4777,11 +4771,11 @@
         <v>60</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C36/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
@@ -4792,11 +4786,11 @@
         <v>45</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="1"/>
+        <f>C37/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
@@ -4807,11 +4801,11 @@
         <v>75</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" si="1"/>
+        <f>C38/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
@@ -4822,11 +4816,11 @@
         <v>75</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="1"/>
+        <f>C39/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>30</v>
       </c>
@@ -4837,11 +4831,11 @@
         <v>60</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C40/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>30</v>
       </c>
@@ -4852,11 +4846,11 @@
         <v>90</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="1"/>
+        <f>C41/15</f>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
@@ -4867,11 +4861,11 @@
         <v>45</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" si="1"/>
+        <f>C42/15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>30</v>
       </c>
@@ -4882,11 +4876,11 @@
         <v>60</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C43/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>31</v>
       </c>
@@ -4897,11 +4891,11 @@
         <v>75</v>
       </c>
       <c r="D44" s="12">
-        <f t="shared" si="1"/>
+        <f>C44/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>31</v>
       </c>
@@ -4912,11 +4906,11 @@
         <v>75</v>
       </c>
       <c r="D45" s="12">
-        <f t="shared" si="1"/>
+        <f>C45/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>31</v>
       </c>
@@ -4927,11 +4921,11 @@
         <v>60</v>
       </c>
       <c r="D46" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C46/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>31</v>
       </c>
@@ -4942,11 +4936,11 @@
         <v>75</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="1"/>
+        <f>C47/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>31</v>
       </c>
@@ -4957,11 +4951,11 @@
         <v>75</v>
       </c>
       <c r="D48" s="12">
-        <f t="shared" si="1"/>
+        <f>C48/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
@@ -4972,11 +4966,11 @@
         <v>75</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" si="1"/>
+        <f>C49/15</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>32</v>
       </c>
@@ -4987,11 +4981,11 @@
         <v>60</v>
       </c>
       <c r="D50" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C50/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
@@ -5002,11 +4996,11 @@
         <v>60</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C51/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -5017,11 +5011,11 @@
         <v>60</v>
       </c>
       <c r="D52" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C52/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>33</v>
       </c>
@@ -5032,11 +5026,11 @@
         <v>60</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C53/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>33</v>
       </c>
@@ -5047,11 +5041,11 @@
         <v>60</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C54/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>34</v>
       </c>
@@ -5062,11 +5056,11 @@
         <v>180</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="1"/>
+        <f>C55/15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>131</v>
       </c>
@@ -5077,11 +5071,11 @@
         <v>60</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C56/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>131</v>
       </c>
@@ -5092,11 +5086,11 @@
         <v>60</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C57/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>131</v>
       </c>
@@ -5107,11 +5101,11 @@
         <v>60</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C58/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
@@ -5122,11 +5116,11 @@
         <v>60</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C59/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>131</v>
       </c>
@@ -5137,11 +5131,11 @@
         <v>60</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C60/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>131</v>
       </c>
@@ -5152,11 +5146,11 @@
         <v>60</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C61/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
@@ -5167,11 +5161,11 @@
         <v>60</v>
       </c>
       <c r="D62" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f>C62/15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>131</v>
       </c>
@@ -5182,13 +5176,14 @@
         <v>60</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="1"/>
+        <f>C63/15</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D63">
-    <sortCondition ref="A1:A63"/>
+    <sortCondition ref="A2:A63"/>
+    <sortCondition ref="B2:B63"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5199,20 +5194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE2BA82-CD6A-45D0-8E13-65807E8DCBA0}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
-    </sheetView>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -5229,7 +5222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -5246,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -5263,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -5280,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5297,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -5314,7 +5307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -5331,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5348,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -5382,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5399,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -5416,7 +5409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5450,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -5501,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -5518,7 +5511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -5535,12 +5528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="18">
         <v>60</v>
@@ -5552,7 +5545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -5569,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5586,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -5603,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -5620,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -5637,7 +5630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -5654,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5671,12 +5664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="18">
         <v>60</v>
@@ -5688,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -5705,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5722,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -5739,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -5756,7 +5749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -5773,12 +5766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="18">
         <v>60</v>
@@ -5790,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -5807,12 +5800,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="18">
         <v>60</v>
@@ -5824,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -5841,12 +5834,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="18">
         <v>75</v>
@@ -5858,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -5875,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -5892,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -5909,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -5926,7 +5919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -5943,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -5960,7 +5953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -5977,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -5994,7 +5987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -6011,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
@@ -6028,7 +6021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -6045,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -6062,7 +6055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -6079,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -6096,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -6113,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -6130,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -6147,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -6164,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -6181,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -6198,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -6215,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>131</v>
       </c>
@@ -6232,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
@@ -6249,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -6266,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
@@ -6283,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -6300,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
@@ -6317,12 +6310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="18">
         <v>60</v>
@@ -6334,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
@@ -6351,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -6368,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>131</v>
       </c>
@@ -6398,20 +6391,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B16ECD-CAE1-4F94-94D0-6157C72333DE}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -6428,7 +6421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -6445,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -6462,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -6479,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -6513,7 +6506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -6530,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6547,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -6564,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -6581,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -6598,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -6615,7 +6608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6632,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6649,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -6666,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6683,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -6700,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6717,7 +6710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -6734,12 +6727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="18">
         <v>60</v>
@@ -6751,7 +6744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -6768,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -6802,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -6819,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -6836,7 +6829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -6853,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -6870,12 +6863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="18">
         <v>60</v>
@@ -6887,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -6904,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6921,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6938,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -6955,7 +6948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -6972,12 +6965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="18">
         <v>60</v>
@@ -6989,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -7006,12 +6999,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="18">
         <v>60</v>
@@ -7023,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -7040,12 +7033,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="18">
         <v>75</v>
@@ -7057,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -7074,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -7091,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -7108,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -7125,7 +7118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -7142,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -7159,7 +7152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -7176,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -7210,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -7244,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -7261,7 +7254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -7278,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -7295,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -7312,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -7329,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -7346,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>34</v>
       </c>
@@ -7363,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -7380,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -7397,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>131</v>
       </c>
@@ -7414,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>131</v>
       </c>
@@ -7431,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>131</v>
       </c>
@@ -7448,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>131</v>
       </c>
@@ -7465,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>131</v>
       </c>
@@ -7482,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -7499,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>131</v>
       </c>
@@ -7516,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>131</v>
       </c>
@@ -7546,17 +7539,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F37B09A-964C-4DC6-815A-03183FF59EA3}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
@@ -7564,7 +7557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
@@ -7580,7 +7573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>44</v>
       </c>
@@ -7588,7 +7581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -7596,7 +7589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>133</v>
       </c>
@@ -7604,7 +7597,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>132</v>
       </c>
@@ -7612,7 +7605,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
@@ -7620,7 +7613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>47</v>
       </c>
@@ -7628,7 +7621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -7636,7 +7629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>48</v>
       </c>
@@ -7644,7 +7637,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>73</v>
       </c>
@@ -7652,7 +7645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
@@ -7660,7 +7653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>100</v>
       </c>
@@ -7668,7 +7661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>71</v>
       </c>
@@ -7676,7 +7669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
@@ -7684,7 +7677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>11</v>
       </c>
@@ -7692,7 +7685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>49</v>
       </c>
@@ -7700,7 +7693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>50</v>
       </c>
@@ -7708,7 +7701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>72</v>
       </c>
@@ -7716,7 +7709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
@@ -7724,15 +7717,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
@@ -7740,7 +7733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -7748,7 +7741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>95</v>
       </c>
@@ -7756,7 +7749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>55</v>
       </c>
@@ -7764,7 +7757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>56</v>
       </c>
@@ -7772,7 +7765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>38</v>
       </c>
@@ -7780,7 +7773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>59</v>
       </c>
@@ -7796,7 +7789,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>60</v>
       </c>
@@ -7804,7 +7797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>61</v>
       </c>
@@ -7812,7 +7805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>17</v>
       </c>
@@ -7820,260 +7813,260 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B62" s="23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
         <v>67</v>
       </c>
+      <c r="B63" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="B64" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="22" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
